--- a/documentation/memo.xlsx
+++ b/documentation/memo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>1er caracter alfabético, 2do, 3ro y 4to caracter numéricos.</t>
+  </si>
+  <si>
+    <t>No hay datos.</t>
   </si>
   <si>
     <t>CRED</t>
@@ -2881,7 +2884,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2892,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2916,13 +2919,13 @@
   <cols>
     <col min="1" max="1" width="11.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.7344" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.8516" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.8516" style="6" customWidth="1"/>
     <col min="4" max="4" width="35.3516" style="6" customWidth="1"/>
     <col min="5" max="5" width="50.8516" style="6" customWidth="1"/>
     <col min="6" max="16384" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" customHeight="1">
+    <row r="1" ht="15.65" customHeight="1">
       <c r="A1" t="s" s="7">
         <v>6</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="14.6" customHeight="1">
+    <row r="2" ht="650.65" customHeight="1">
       <c r="A2" t="s" s="11">
         <v>11</v>
       </c>
@@ -2954,7 +2957,7 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" ht="14.6" customHeight="1">
+    <row r="3" ht="38.65" customHeight="1">
       <c r="A3" t="s" s="16">
         <v>15</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="38.6" customHeight="1">
+    <row r="4" ht="146.65" customHeight="1">
       <c r="A4" t="s" s="16">
         <v>19</v>
       </c>
@@ -2986,7 +2989,7 @@
       </c>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" ht="14.6" customHeight="1">
+    <row r="5" ht="14.65" customHeight="1">
       <c r="A5" t="s" s="16">
         <v>22</v>
       </c>
@@ -2999,7 +3002,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" ht="26.6" customHeight="1">
+    <row r="6" ht="26.65" customHeight="1">
       <c r="A6" t="s" s="16">
         <v>24</v>
       </c>
@@ -3014,7 +3017,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" ht="38.6" customHeight="1">
+    <row r="7" ht="146.65" customHeight="1">
       <c r="A7" t="s" s="16">
         <v>27</v>
       </c>
@@ -3029,7 +3032,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" ht="14.6" customHeight="1">
+    <row r="8" ht="14.65" customHeight="1">
       <c r="A8" t="s" s="16">
         <v>29</v>
       </c>
@@ -3042,7 +3045,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" ht="14.6" customHeight="1">
+    <row r="9" ht="14.65" customHeight="1">
       <c r="A9" t="s" s="16">
         <v>31</v>
       </c>
@@ -3057,7 +3060,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" ht="50.6" customHeight="1">
+    <row r="10" ht="50.65" customHeight="1">
       <c r="A10" t="s" s="16">
         <v>34</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="26.6" customHeight="1">
+    <row r="11" ht="26.65" customHeight="1">
       <c r="A11" t="s" s="16">
         <v>38</v>
       </c>
@@ -3089,7 +3092,7 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" ht="26.6" customHeight="1">
+    <row r="12" ht="650.65" customHeight="1">
       <c r="A12" t="s" s="16">
         <v>41</v>
       </c>
@@ -3104,7 +3107,7 @@
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" ht="50.6" customHeight="1">
+    <row r="13" ht="38.65" customHeight="1">
       <c r="A13" t="s" s="16">
         <v>44</v>
       </c>
@@ -3121,7 +3124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="38.6" customHeight="1">
+    <row r="14" ht="38.65" customHeight="1">
       <c r="A14" t="s" s="16">
         <v>47</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" ht="14.6" customHeight="1">
+    <row r="15" ht="26.65" customHeight="1">
       <c r="A15" t="s" s="16">
         <v>50</v>
       </c>
@@ -3153,7 +3156,7 @@
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" ht="122.6" customHeight="1">
+    <row r="16" ht="650.65" customHeight="1">
       <c r="A16" t="s" s="16">
         <v>53</v>
       </c>
@@ -3168,7 +3171,7 @@
       </c>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" ht="26.6" customHeight="1">
+    <row r="17" ht="38.65" customHeight="1">
       <c r="A17" t="s" s="16">
         <v>55</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="14.6" customHeight="1">
+    <row r="18" ht="26.65" customHeight="1">
       <c r="A18" t="s" s="16">
         <v>58</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" ht="62.6" customHeight="1">
+    <row r="19" ht="38.65" customHeight="1">
       <c r="A19" t="s" s="16">
         <v>61</v>
       </c>
@@ -3217,7 +3220,7 @@
       </c>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" ht="89" customHeight="1">
+    <row r="20" ht="74.65" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
@@ -3228,7 +3231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" ht="254.6" customHeight="1">
+    <row r="21" ht="206.65" customHeight="1">
       <c r="A21" t="s" s="16">
         <v>66</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" ht="254.6" customHeight="1">
+    <row r="22" ht="242.65" customHeight="1">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
@@ -3256,7 +3259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" ht="254.6" customHeight="1">
+    <row r="23" ht="314.65" customHeight="1">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
@@ -3267,7 +3270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" ht="14.6" customHeight="1">
+    <row r="24" ht="14.65" customHeight="1">
       <c r="A24" t="s" s="16">
         <v>74</v>
       </c>
@@ -3280,7 +3283,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" ht="26.6" customHeight="1">
+    <row r="25" ht="26.65" customHeight="1">
       <c r="A25" t="s" s="16">
         <v>76</v>
       </c>
@@ -3293,7 +3296,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" ht="26.6" customHeight="1">
+    <row r="26" ht="26.65" customHeight="1">
       <c r="A26" t="s" s="16">
         <v>78</v>
       </c>
@@ -3306,7 +3309,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" ht="62.6" customHeight="1">
+    <row r="27" ht="62.65" customHeight="1">
       <c r="A27" t="s" s="16">
         <v>80</v>
       </c>
@@ -3321,7 +3324,7 @@
       </c>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" ht="62.6" customHeight="1">
+    <row r="28" ht="62.65" customHeight="1">
       <c r="A28" t="s" s="16">
         <v>83</v>
       </c>
@@ -3336,7 +3339,7 @@
       </c>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" ht="62.6" customHeight="1">
+    <row r="29" ht="62.65" customHeight="1">
       <c r="A29" t="s" s="16">
         <v>86</v>
       </c>
@@ -3351,7 +3354,7 @@
       </c>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" ht="26.6" customHeight="1">
+    <row r="30" ht="26.65" customHeight="1">
       <c r="A30" t="s" s="16">
         <v>88</v>
       </c>
@@ -3366,7 +3369,7 @@
       </c>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" ht="26.6" customHeight="1">
+    <row r="31" ht="26.65" customHeight="1">
       <c r="A31" t="s" s="16">
         <v>91</v>
       </c>
@@ -3381,7 +3384,7 @@
       </c>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" ht="26.6" customHeight="1">
+    <row r="32" ht="26.65" customHeight="1">
       <c r="A32" t="s" s="16">
         <v>93</v>
       </c>
@@ -3396,7 +3399,7 @@
       </c>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" ht="14.6" customHeight="1">
+    <row r="33" ht="26.65" customHeight="1">
       <c r="A33" t="s" s="16">
         <v>95</v>
       </c>
@@ -3409,95 +3412,103 @@
       <c r="D33" t="s" s="11">
         <v>98</v>
       </c>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" ht="14.6" customHeight="1">
+      <c r="E33" t="s" s="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" ht="14.65" customHeight="1">
       <c r="A34" t="s" s="16">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s" s="16">
         <v>12</v>
       </c>
       <c r="C34" t="s" s="16">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s" s="16">
-        <v>101</v>
-      </c>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" ht="14.6" customHeight="1">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s" s="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" ht="14.65" customHeight="1">
       <c r="A35" t="s" s="16">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s" s="16">
         <v>12</v>
       </c>
       <c r="C35" t="s" s="16">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s" s="16">
-        <v>104</v>
-      </c>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" ht="14.6" customHeight="1">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s" s="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" ht="14.65" customHeight="1">
       <c r="A36" t="s" s="16">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s" s="16">
         <v>12</v>
       </c>
       <c r="C36" t="s" s="26">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s" s="26">
-        <v>107</v>
-      </c>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" ht="14.6" customHeight="1">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s" s="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" ht="314.65" customHeight="1">
       <c r="A37" t="s" s="16">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s" s="12">
         <v>12</v>
       </c>
       <c r="C37" t="s" s="13">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s" s="13">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E37" s="19"/>
     </row>
-    <row r="38" ht="14.6" customHeight="1">
+    <row r="38" ht="38.65" customHeight="1">
       <c r="A38" t="s" s="16">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s" s="12">
         <v>12</v>
       </c>
       <c r="C38" t="s" s="13">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s" s="13">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" ht="14.6" customHeight="1">
+    <row r="39" ht="62.65" customHeight="1">
       <c r="A39" t="s" s="16">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s" s="12">
         <v>12</v>
       </c>
       <c r="C39" t="s" s="13">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s" s="13">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E39" s="19"/>
     </row>
@@ -3539,30 +3550,30 @@
   <sheetData>
     <row r="1" ht="14.6" customHeight="1">
       <c r="A1" t="s" s="32">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s" s="32">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s" s="32">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s" s="32">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s" s="32">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" ht="14.6" customHeight="1">
       <c r="A2" t="s" s="33">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="34">
         <v>101</v>
       </c>
       <c r="C2" t="s" s="33">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" s="34">
         <v>19000101</v>
@@ -3577,7 +3588,7 @@
         <v>102</v>
       </c>
       <c r="C3" t="s" s="37">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" s="36">
         <v>19000101</v>
@@ -3592,7 +3603,7 @@
         <v>103</v>
       </c>
       <c r="C4" t="s" s="37">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D4" s="36">
         <v>19000101</v>
@@ -3607,7 +3618,7 @@
         <v>104</v>
       </c>
       <c r="C5" t="s" s="37">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" s="36">
         <v>19000101</v>
@@ -3622,7 +3633,7 @@
         <v>105</v>
       </c>
       <c r="C6" t="s" s="37">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D6" s="36">
         <v>19000101</v>
@@ -3637,7 +3648,7 @@
         <v>106</v>
       </c>
       <c r="C7" t="s" s="37">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="36">
         <v>19000101</v>
@@ -3652,7 +3663,7 @@
         <v>107</v>
       </c>
       <c r="C8" t="s" s="37">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D8" s="36">
         <v>19000101</v>
@@ -3667,7 +3678,7 @@
         <v>108</v>
       </c>
       <c r="C9" t="s" s="37">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D9" s="36">
         <v>19000101</v>
@@ -3682,7 +3693,7 @@
         <v>109</v>
       </c>
       <c r="C10" t="s" s="37">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D10" s="36">
         <v>19000101</v>
@@ -3697,7 +3708,7 @@
         <v>110</v>
       </c>
       <c r="C11" t="s" s="37">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D11" s="36">
         <v>19000101</v>
@@ -3712,7 +3723,7 @@
         <v>111</v>
       </c>
       <c r="C12" t="s" s="37">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D12" s="36">
         <v>19000101</v>
@@ -3727,7 +3738,7 @@
         <v>112</v>
       </c>
       <c r="C13" t="s" s="37">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D13" s="36">
         <v>19000101</v>
@@ -3742,7 +3753,7 @@
         <v>113</v>
       </c>
       <c r="C14" t="s" s="37">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D14" s="36">
         <v>19000101</v>
@@ -3757,7 +3768,7 @@
         <v>114</v>
       </c>
       <c r="C15" t="s" s="37">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D15" s="36">
         <v>19000101</v>
@@ -3772,7 +3783,7 @@
         <v>115</v>
       </c>
       <c r="C16" t="s" s="37">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D16" s="36">
         <v>19000101</v>
@@ -3787,7 +3798,7 @@
         <v>116</v>
       </c>
       <c r="C17" t="s" s="37">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" s="36">
         <v>19000101</v>
@@ -3802,7 +3813,7 @@
         <v>117</v>
       </c>
       <c r="C18" t="s" s="37">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18" s="36">
         <v>19000101</v>
@@ -3817,7 +3828,7 @@
         <v>118</v>
       </c>
       <c r="C19" t="s" s="37">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D19" s="36">
         <v>19000101</v>
@@ -3832,7 +3843,7 @@
         <v>119</v>
       </c>
       <c r="C20" t="s" s="37">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D20" s="36">
         <v>19000101</v>
@@ -3847,7 +3858,7 @@
         <v>120</v>
       </c>
       <c r="C21" t="s" s="37">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D21" s="36">
         <v>19000101</v>
@@ -3862,7 +3873,7 @@
         <v>121</v>
       </c>
       <c r="C22" t="s" s="37">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D22" s="36">
         <v>19000101</v>
@@ -3877,7 +3888,7 @@
         <v>122</v>
       </c>
       <c r="C23" t="s" s="37">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D23" s="36">
         <v>19000101</v>
@@ -3892,7 +3903,7 @@
         <v>123</v>
       </c>
       <c r="C24" t="s" s="37">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D24" s="36">
         <v>19000101</v>
@@ -3907,7 +3918,7 @@
         <v>124</v>
       </c>
       <c r="C25" t="s" s="37">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D25" s="36">
         <v>19000101</v>
@@ -3922,7 +3933,7 @@
         <v>125</v>
       </c>
       <c r="C26" t="s" s="37">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D26" s="36">
         <v>19000101</v>
@@ -3937,7 +3948,7 @@
         <v>126</v>
       </c>
       <c r="C27" t="s" s="37">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D27" s="36">
         <v>19000101</v>
@@ -3952,7 +3963,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s" s="37">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D28" s="36">
         <v>19000101</v>
@@ -3967,7 +3978,7 @@
         <v>128</v>
       </c>
       <c r="C29" t="s" s="37">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D29" s="36">
         <v>19000101</v>
@@ -3982,7 +3993,7 @@
         <v>129</v>
       </c>
       <c r="C30" t="s" s="37">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D30" s="36">
         <v>19000101</v>
@@ -3997,7 +4008,7 @@
         <v>130</v>
       </c>
       <c r="C31" t="s" s="37">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D31" s="36">
         <v>19000101</v>
@@ -4012,7 +4023,7 @@
         <v>131</v>
       </c>
       <c r="C32" t="s" s="37">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D32" s="36">
         <v>19000101</v>
@@ -4027,7 +4038,7 @@
         <v>132</v>
       </c>
       <c r="C33" t="s" s="37">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D33" s="36">
         <v>19000101</v>
@@ -4042,7 +4053,7 @@
         <v>133</v>
       </c>
       <c r="C34" t="s" s="37">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D34" s="36">
         <v>19000101</v>
@@ -4057,7 +4068,7 @@
         <v>134</v>
       </c>
       <c r="C35" t="s" s="37">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D35" s="36">
         <v>19000101</v>
@@ -4072,7 +4083,7 @@
         <v>135</v>
       </c>
       <c r="C36" t="s" s="37">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D36" s="36">
         <v>19940101</v>
@@ -4087,7 +4098,7 @@
         <v>136</v>
       </c>
       <c r="C37" t="s" s="37">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D37" s="36">
         <v>19940101</v>
@@ -4102,7 +4113,7 @@
         <v>137</v>
       </c>
       <c r="C38" t="s" s="37">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D38" s="36">
         <v>19940101</v>
@@ -4117,7 +4128,7 @@
         <v>138</v>
       </c>
       <c r="C39" t="s" s="37">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D39" s="36">
         <v>19940101</v>
@@ -4132,7 +4143,7 @@
         <v>139</v>
       </c>
       <c r="C40" t="s" s="37">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D40" s="36">
         <v>19940101</v>
@@ -4147,7 +4158,7 @@
         <v>140</v>
       </c>
       <c r="C41" t="s" s="37">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D41" s="36">
         <v>19940101</v>
@@ -4162,7 +4173,7 @@
         <v>141</v>
       </c>
       <c r="C42" t="s" s="37">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D42" s="36">
         <v>19940101</v>
@@ -4177,7 +4188,7 @@
         <v>142</v>
       </c>
       <c r="C43" t="s" s="37">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D43" s="36">
         <v>19940101</v>
@@ -4192,7 +4203,7 @@
         <v>143</v>
       </c>
       <c r="C44" t="s" s="37">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D44" s="36">
         <v>19940101</v>
@@ -4207,7 +4218,7 @@
         <v>144</v>
       </c>
       <c r="C45" t="s" s="37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D45" s="36">
         <v>19940101</v>
@@ -4222,7 +4233,7 @@
         <v>145</v>
       </c>
       <c r="C46" t="s" s="37">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D46" s="36">
         <v>19940101</v>
@@ -4237,7 +4248,7 @@
         <v>146</v>
       </c>
       <c r="C47" t="s" s="37">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D47" s="36">
         <v>19940101</v>
@@ -4252,7 +4263,7 @@
         <v>147</v>
       </c>
       <c r="C48" t="s" s="37">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D48" s="36">
         <v>19940101</v>
@@ -4267,7 +4278,7 @@
         <v>148</v>
       </c>
       <c r="C49" t="s" s="37">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D49" s="36">
         <v>19940101</v>
@@ -4282,7 +4293,7 @@
         <v>149</v>
       </c>
       <c r="C50" t="s" s="37">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D50" s="36">
         <v>19940101</v>
@@ -4297,7 +4308,7 @@
         <v>150</v>
       </c>
       <c r="C51" t="s" s="37">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D51" s="36">
         <v>19940101</v>
@@ -4312,7 +4323,7 @@
         <v>151</v>
       </c>
       <c r="C52" t="s" s="37">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D52" s="36">
         <v>19940101</v>
@@ -4327,7 +4338,7 @@
         <v>152</v>
       </c>
       <c r="C53" t="s" s="37">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D53" s="36">
         <v>19940101</v>
@@ -4342,7 +4353,7 @@
         <v>153</v>
       </c>
       <c r="C54" t="s" s="37">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D54" s="36">
         <v>19940101</v>
@@ -4357,7 +4368,7 @@
         <v>154</v>
       </c>
       <c r="C55" t="s" s="37">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D55" s="36">
         <v>19940101</v>
@@ -4372,7 +4383,7 @@
         <v>155</v>
       </c>
       <c r="C56" t="s" s="37">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D56" s="36">
         <v>19940101</v>
@@ -4387,7 +4398,7 @@
         <v>155</v>
       </c>
       <c r="C57" t="s" s="37">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D57" s="36">
         <v>20030801</v>
@@ -4402,7 +4413,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s" s="37">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="36">
         <v>19940101</v>
@@ -4417,7 +4428,7 @@
         <v>199</v>
       </c>
       <c r="C59" t="s" s="40">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="39">
         <v>19000101</v>
@@ -4428,13 +4439,13 @@
     </row>
     <row r="60" ht="14.6" customHeight="1">
       <c r="A60" t="s" s="41">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B60" s="42">
         <v>201</v>
       </c>
       <c r="C60" t="s" s="41">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="42">
         <v>19000101</v>
@@ -4449,7 +4460,7 @@
         <v>202</v>
       </c>
       <c r="C61" t="s" s="37">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="36">
         <v>19000101</v>
@@ -4464,7 +4475,7 @@
         <v>203</v>
       </c>
       <c r="C62" t="s" s="37">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="36">
         <v>19000101</v>
@@ -4479,7 +4490,7 @@
         <v>204</v>
       </c>
       <c r="C63" t="s" s="37">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="36">
         <v>19000101</v>
@@ -4494,7 +4505,7 @@
         <v>205</v>
       </c>
       <c r="C64" t="s" s="37">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="36">
         <v>19000101</v>
@@ -4509,7 +4520,7 @@
         <v>206</v>
       </c>
       <c r="C65" t="s" s="37">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="36">
         <v>19000101</v>
@@ -4524,7 +4535,7 @@
         <v>207</v>
       </c>
       <c r="C66" t="s" s="37">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="36">
         <v>19000101</v>
@@ -4539,7 +4550,7 @@
         <v>208</v>
       </c>
       <c r="C67" t="s" s="37">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="36">
         <v>19000101</v>
@@ -4554,7 +4565,7 @@
         <v>209</v>
       </c>
       <c r="C68" t="s" s="37">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="36">
         <v>19000101</v>
@@ -4569,7 +4580,7 @@
         <v>210</v>
       </c>
       <c r="C69" t="s" s="37">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D69" s="36">
         <v>19000101</v>
@@ -4584,7 +4595,7 @@
         <v>211</v>
       </c>
       <c r="C70" t="s" s="37">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D70" s="36">
         <v>19000101</v>
@@ -4599,7 +4610,7 @@
         <v>212</v>
       </c>
       <c r="C71" t="s" s="37">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D71" s="36">
         <v>19000101</v>
@@ -4614,7 +4625,7 @@
         <v>213</v>
       </c>
       <c r="C72" t="s" s="37">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D72" s="36">
         <v>19000101</v>
@@ -4629,7 +4640,7 @@
         <v>214</v>
       </c>
       <c r="C73" t="s" s="37">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D73" s="36">
         <v>19000101</v>
@@ -4644,7 +4655,7 @@
         <v>215</v>
       </c>
       <c r="C74" t="s" s="37">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D74" s="36">
         <v>19000101</v>
@@ -4659,7 +4670,7 @@
         <v>216</v>
       </c>
       <c r="C75" t="s" s="37">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D75" s="36">
         <v>19000101</v>
@@ -4674,7 +4685,7 @@
         <v>217</v>
       </c>
       <c r="C76" t="s" s="37">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D76" s="36">
         <v>19000101</v>
@@ -4689,7 +4700,7 @@
         <v>218</v>
       </c>
       <c r="C77" t="s" s="37">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D77" s="36">
         <v>19000101</v>
@@ -4704,7 +4715,7 @@
         <v>219</v>
       </c>
       <c r="C78" t="s" s="37">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D78" s="36">
         <v>19000101</v>
@@ -4719,7 +4730,7 @@
         <v>220</v>
       </c>
       <c r="C79" t="s" s="37">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D79" s="36">
         <v>19000101</v>
@@ -4734,7 +4745,7 @@
         <v>221</v>
       </c>
       <c r="C80" t="s" s="37">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D80" s="36">
         <v>19000101</v>
@@ -4749,7 +4760,7 @@
         <v>222</v>
       </c>
       <c r="C81" t="s" s="37">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D81" s="36">
         <v>19000101</v>
@@ -4764,7 +4775,7 @@
         <v>223</v>
       </c>
       <c r="C82" t="s" s="37">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D82" s="36">
         <v>19000101</v>
@@ -4779,7 +4790,7 @@
         <v>224</v>
       </c>
       <c r="C83" t="s" s="37">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D83" s="36">
         <v>19000101</v>
@@ -4794,7 +4805,7 @@
         <v>225</v>
       </c>
       <c r="C84" t="s" s="37">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D84" s="36">
         <v>19000101</v>
@@ -4809,7 +4820,7 @@
         <v>226</v>
       </c>
       <c r="C85" t="s" s="37">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D85" s="36">
         <v>19000101</v>
@@ -4824,7 +4835,7 @@
         <v>227</v>
       </c>
       <c r="C86" t="s" s="37">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D86" s="36">
         <v>19000101</v>
@@ -4839,7 +4850,7 @@
         <v>228</v>
       </c>
       <c r="C87" t="s" s="37">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D87" s="36">
         <v>19000101</v>
@@ -4854,7 +4865,7 @@
         <v>229</v>
       </c>
       <c r="C88" t="s" s="37">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D88" s="36">
         <v>19000101</v>
@@ -4869,7 +4880,7 @@
         <v>230</v>
       </c>
       <c r="C89" t="s" s="37">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D89" s="36">
         <v>19000101</v>
@@ -4884,7 +4895,7 @@
         <v>231</v>
       </c>
       <c r="C90" t="s" s="37">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D90" s="36">
         <v>19000101</v>
@@ -4899,7 +4910,7 @@
         <v>232</v>
       </c>
       <c r="C91" t="s" s="37">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D91" s="36">
         <v>19000101</v>
@@ -4914,7 +4925,7 @@
         <v>233</v>
       </c>
       <c r="C92" t="s" s="37">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D92" s="36">
         <v>19000101</v>
@@ -4929,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="C93" t="s" s="37">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D93" s="36">
         <v>19000101</v>
@@ -4944,7 +4955,7 @@
         <v>235</v>
       </c>
       <c r="C94" t="s" s="37">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94" s="36">
         <v>19000101</v>
@@ -4959,7 +4970,7 @@
         <v>236</v>
       </c>
       <c r="C95" t="s" s="37">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D95" s="36">
         <v>19000101</v>
@@ -4974,7 +4985,7 @@
         <v>237</v>
       </c>
       <c r="C96" t="s" s="37">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D96" s="36">
         <v>19000101</v>
@@ -4989,7 +5000,7 @@
         <v>238</v>
       </c>
       <c r="C97" t="s" s="37">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D97" s="36">
         <v>19000101</v>
@@ -5004,7 +5015,7 @@
         <v>239</v>
       </c>
       <c r="C98" t="s" s="37">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D98" s="36">
         <v>19000101</v>
@@ -5019,7 +5030,7 @@
         <v>240</v>
       </c>
       <c r="C99" t="s" s="37">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D99" s="36">
         <v>19000101</v>
@@ -5034,7 +5045,7 @@
         <v>241</v>
       </c>
       <c r="C100" t="s" s="37">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D100" s="36">
         <v>19000101</v>
@@ -5049,7 +5060,7 @@
         <v>242</v>
       </c>
       <c r="C101" t="s" s="37">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D101" s="36">
         <v>19000101</v>
@@ -5064,7 +5075,7 @@
         <v>243</v>
       </c>
       <c r="C102" t="s" s="37">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D102" s="36">
         <v>19000101</v>
@@ -5079,7 +5090,7 @@
         <v>244</v>
       </c>
       <c r="C103" t="s" s="37">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D103" s="36">
         <v>19000101</v>
@@ -5094,7 +5105,7 @@
         <v>245</v>
       </c>
       <c r="C104" t="s" s="37">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D104" s="36">
         <v>19000101</v>
@@ -5109,7 +5120,7 @@
         <v>246</v>
       </c>
       <c r="C105" t="s" s="37">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D105" s="36">
         <v>19000101</v>
@@ -5124,7 +5135,7 @@
         <v>247</v>
       </c>
       <c r="C106" t="s" s="37">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D106" s="36">
         <v>19000101</v>
@@ -5139,7 +5150,7 @@
         <v>248</v>
       </c>
       <c r="C107" t="s" s="37">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D107" s="36">
         <v>19000101</v>
@@ -5154,7 +5165,7 @@
         <v>249</v>
       </c>
       <c r="C108" t="s" s="37">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D108" s="36">
         <v>19000101</v>
@@ -5169,7 +5180,7 @@
         <v>250</v>
       </c>
       <c r="C109" t="s" s="37">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D109" s="36">
         <v>19000101</v>
@@ -5184,7 +5195,7 @@
         <v>250</v>
       </c>
       <c r="C110" t="s" s="37">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D110" s="36">
         <v>19970901</v>
@@ -5199,7 +5210,7 @@
         <v>251</v>
       </c>
       <c r="C111" t="s" s="37">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D111" s="36">
         <v>19000101</v>
@@ -5214,7 +5225,7 @@
         <v>252</v>
       </c>
       <c r="C112" t="s" s="37">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D112" s="36">
         <v>19000101</v>
@@ -5229,7 +5240,7 @@
         <v>253</v>
       </c>
       <c r="C113" t="s" s="37">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D113" s="36">
         <v>19000101</v>
@@ -5244,7 +5255,7 @@
         <v>299</v>
       </c>
       <c r="C114" t="s" s="40">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D114" s="39">
         <v>19000101</v>
@@ -5255,13 +5266,13 @@
     </row>
     <row r="115" ht="14.6" customHeight="1">
       <c r="A115" t="s" s="41">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B115" s="42">
         <v>301</v>
       </c>
       <c r="C115" t="s" s="41">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D115" s="42">
         <v>19000101</v>
@@ -5276,7 +5287,7 @@
         <v>302</v>
       </c>
       <c r="C116" t="s" s="37">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D116" s="36">
         <v>19000101</v>
@@ -5291,7 +5302,7 @@
         <v>303</v>
       </c>
       <c r="C117" t="s" s="37">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D117" s="36">
         <v>19000101</v>
@@ -5306,7 +5317,7 @@
         <v>310</v>
       </c>
       <c r="C118" t="s" s="37">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D118" s="36">
         <v>19000101</v>
@@ -5321,7 +5332,7 @@
         <v>311</v>
       </c>
       <c r="C119" t="s" s="37">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D119" s="36">
         <v>19000101</v>
@@ -5336,7 +5347,7 @@
         <v>312</v>
       </c>
       <c r="C120" t="s" s="37">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D120" s="36">
         <v>19000101</v>
@@ -5351,7 +5362,7 @@
         <v>313</v>
       </c>
       <c r="C121" t="s" s="37">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D121" s="36">
         <v>19000101</v>
@@ -5366,7 +5377,7 @@
         <v>314</v>
       </c>
       <c r="C122" t="s" s="37">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D122" s="36">
         <v>19000101</v>
@@ -5381,7 +5392,7 @@
         <v>315</v>
       </c>
       <c r="C123" t="s" s="37">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D123" s="36">
         <v>19000101</v>
@@ -5396,7 +5407,7 @@
         <v>316</v>
       </c>
       <c r="C124" t="s" s="37">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D124" s="36">
         <v>19000101</v>
@@ -5411,7 +5422,7 @@
         <v>317</v>
       </c>
       <c r="C125" t="s" s="37">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D125" s="36">
         <v>19000101</v>
@@ -5426,7 +5437,7 @@
         <v>318</v>
       </c>
       <c r="C126" t="s" s="37">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D126" s="36">
         <v>19000101</v>
@@ -5441,7 +5452,7 @@
         <v>319</v>
       </c>
       <c r="C127" t="s" s="37">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D127" s="36">
         <v>19000101</v>
@@ -5456,7 +5467,7 @@
         <v>320</v>
       </c>
       <c r="C128" t="s" s="37">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D128" s="36">
         <v>19000101</v>
@@ -5471,7 +5482,7 @@
         <v>321</v>
       </c>
       <c r="C129" t="s" s="37">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D129" s="36">
         <v>19000101</v>
@@ -5486,7 +5497,7 @@
         <v>322</v>
       </c>
       <c r="C130" t="s" s="37">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D130" s="36">
         <v>19000101</v>
@@ -5501,7 +5512,7 @@
         <v>323</v>
       </c>
       <c r="C131" t="s" s="37">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D131" s="36">
         <v>19000101</v>
@@ -5516,7 +5527,7 @@
         <v>324</v>
       </c>
       <c r="C132" t="s" s="37">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D132" s="36">
         <v>19000101</v>
@@ -5531,7 +5542,7 @@
         <v>325</v>
       </c>
       <c r="C133" t="s" s="37">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D133" s="36">
         <v>19000101</v>
@@ -5546,7 +5557,7 @@
         <v>326</v>
       </c>
       <c r="C134" t="s" s="37">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D134" s="36">
         <v>19000101</v>
@@ -5561,7 +5572,7 @@
         <v>327</v>
       </c>
       <c r="C135" t="s" s="37">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D135" s="36">
         <v>19000101</v>
@@ -5576,7 +5587,7 @@
         <v>328</v>
       </c>
       <c r="C136" t="s" s="37">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D136" s="36">
         <v>19000101</v>
@@ -5591,7 +5602,7 @@
         <v>329</v>
       </c>
       <c r="C137" t="s" s="37">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D137" s="36">
         <v>19000101</v>
@@ -5606,7 +5617,7 @@
         <v>340</v>
       </c>
       <c r="C138" t="s" s="37">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D138" s="36">
         <v>19000101</v>
@@ -5621,7 +5632,7 @@
         <v>341</v>
       </c>
       <c r="C139" t="s" s="37">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D139" s="36">
         <v>19000101</v>
@@ -5636,7 +5647,7 @@
         <v>342</v>
       </c>
       <c r="C140" t="s" s="37">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D140" s="36">
         <v>19000101</v>
@@ -5651,7 +5662,7 @@
         <v>343</v>
       </c>
       <c r="C141" t="s" s="37">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D141" s="36">
         <v>19000101</v>
@@ -5666,7 +5677,7 @@
         <v>344</v>
       </c>
       <c r="C142" t="s" s="37">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D142" s="36">
         <v>19000101</v>
@@ -5681,7 +5692,7 @@
         <v>345</v>
       </c>
       <c r="C143" t="s" s="37">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D143" s="36">
         <v>19000101</v>
@@ -5696,7 +5707,7 @@
         <v>346</v>
       </c>
       <c r="C144" t="s" s="37">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D144" s="36">
         <v>19000101</v>
@@ -5711,7 +5722,7 @@
         <v>347</v>
       </c>
       <c r="C145" t="s" s="37">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D145" s="36">
         <v>19000101</v>
@@ -5726,7 +5737,7 @@
         <v>348</v>
       </c>
       <c r="C146" t="s" s="37">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D146" s="36">
         <v>19000101</v>
@@ -5741,7 +5752,7 @@
         <v>349</v>
       </c>
       <c r="C147" t="s" s="37">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D147" s="36">
         <v>19000101</v>
@@ -5756,7 +5767,7 @@
         <v>350</v>
       </c>
       <c r="C148" t="s" s="37">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D148" s="36">
         <v>19000101</v>
@@ -5771,7 +5782,7 @@
         <v>351</v>
       </c>
       <c r="C149" t="s" s="37">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D149" s="36">
         <v>19000101</v>
@@ -5786,7 +5797,7 @@
         <v>399</v>
       </c>
       <c r="C150" t="s" s="40">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D150" s="39">
         <v>19000101</v>
@@ -5797,13 +5808,13 @@
     </row>
     <row r="151" ht="14.6" customHeight="1">
       <c r="A151" t="s" s="41">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B151" s="42">
         <v>401</v>
       </c>
       <c r="C151" t="s" s="41">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D151" s="42">
         <v>19000101</v>
@@ -5818,7 +5829,7 @@
         <v>402</v>
       </c>
       <c r="C152" t="s" s="37">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D152" s="36">
         <v>19000101</v>
@@ -5833,7 +5844,7 @@
         <v>403</v>
       </c>
       <c r="C153" t="s" s="37">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D153" s="36">
         <v>19000101</v>
@@ -5848,7 +5859,7 @@
         <v>404</v>
       </c>
       <c r="C154" t="s" s="37">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D154" s="36">
         <v>19000101</v>
@@ -5863,7 +5874,7 @@
         <v>405</v>
       </c>
       <c r="C155" t="s" s="37">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D155" s="36">
         <v>19000101</v>
@@ -5878,7 +5889,7 @@
         <v>407</v>
       </c>
       <c r="C156" t="s" s="37">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D156" s="36">
         <v>19000101</v>
@@ -5893,7 +5904,7 @@
         <v>408</v>
       </c>
       <c r="C157" t="s" s="37">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D157" s="36">
         <v>19000101</v>
@@ -5908,7 +5919,7 @@
         <v>409</v>
       </c>
       <c r="C158" t="s" s="37">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D158" s="36">
         <v>19000101</v>
@@ -5923,7 +5934,7 @@
         <v>410</v>
       </c>
       <c r="C159" t="s" s="37">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D159" s="36">
         <v>19000101</v>
@@ -5938,7 +5949,7 @@
         <v>411</v>
       </c>
       <c r="C160" t="s" s="37">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D160" s="36">
         <v>19000101</v>
@@ -5953,7 +5964,7 @@
         <v>412</v>
       </c>
       <c r="C161" t="s" s="37">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D161" s="36">
         <v>19000101</v>
@@ -5968,7 +5979,7 @@
         <v>413</v>
       </c>
       <c r="C162" t="s" s="37">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D162" s="36">
         <v>19000101</v>
@@ -5983,7 +5994,7 @@
         <v>414</v>
       </c>
       <c r="C163" t="s" s="37">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D163" s="36">
         <v>19000101</v>
@@ -5998,7 +6009,7 @@
         <v>415</v>
       </c>
       <c r="C164" t="s" s="37">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D164" s="36">
         <v>19000101</v>
@@ -6013,7 +6024,7 @@
         <v>416</v>
       </c>
       <c r="C165" t="s" s="37">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D165" s="36">
         <v>19000101</v>
@@ -6028,7 +6039,7 @@
         <v>417</v>
       </c>
       <c r="C166" t="s" s="37">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D166" s="36">
         <v>19000101</v>
@@ -6043,7 +6054,7 @@
         <v>418</v>
       </c>
       <c r="C167" t="s" s="37">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D167" s="36">
         <v>19000101</v>
@@ -6058,7 +6069,7 @@
         <v>419</v>
       </c>
       <c r="C168" t="s" s="37">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D168" s="36">
         <v>19000101</v>
@@ -6073,7 +6084,7 @@
         <v>420</v>
       </c>
       <c r="C169" t="s" s="37">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D169" s="36">
         <v>19000101</v>
@@ -6088,7 +6099,7 @@
         <v>421</v>
       </c>
       <c r="C170" t="s" s="37">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D170" s="36">
         <v>19000101</v>
@@ -6103,7 +6114,7 @@
         <v>422</v>
       </c>
       <c r="C171" t="s" s="37">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D171" s="36">
         <v>19000101</v>
@@ -6118,7 +6129,7 @@
         <v>423</v>
       </c>
       <c r="C172" t="s" s="37">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D172" s="36">
         <v>19000101</v>
@@ -6133,7 +6144,7 @@
         <v>424</v>
       </c>
       <c r="C173" t="s" s="37">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D173" s="36">
         <v>19000101</v>
@@ -6148,7 +6159,7 @@
         <v>425</v>
       </c>
       <c r="C174" t="s" s="37">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D174" s="36">
         <v>19000101</v>
@@ -6163,7 +6174,7 @@
         <v>426</v>
       </c>
       <c r="C175" t="s" s="37">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D175" s="36">
         <v>19000101</v>
@@ -6178,7 +6189,7 @@
         <v>427</v>
       </c>
       <c r="C176" t="s" s="37">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D176" s="36">
         <v>19000101</v>
@@ -6193,7 +6204,7 @@
         <v>428</v>
       </c>
       <c r="C177" t="s" s="37">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D177" s="36">
         <v>19000101</v>
@@ -6208,7 +6219,7 @@
         <v>429</v>
       </c>
       <c r="C178" t="s" s="37">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D178" s="36">
         <v>19000101</v>
@@ -6223,7 +6234,7 @@
         <v>430</v>
       </c>
       <c r="C179" t="s" s="37">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D179" s="36">
         <v>19000101</v>
@@ -6238,7 +6249,7 @@
         <v>431</v>
       </c>
       <c r="C180" t="s" s="37">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D180" s="36">
         <v>20010702</v>
@@ -6253,7 +6264,7 @@
         <v>432</v>
       </c>
       <c r="C181" t="s" s="37">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D181" s="36">
         <v>19000101</v>
@@ -6268,7 +6279,7 @@
         <v>433</v>
       </c>
       <c r="C182" t="s" s="37">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D182" s="36">
         <v>19000101</v>
@@ -6283,7 +6294,7 @@
         <v>434</v>
       </c>
       <c r="C183" t="s" s="37">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D183" s="36">
         <v>19000101</v>
@@ -6298,7 +6309,7 @@
         <v>435</v>
       </c>
       <c r="C184" t="s" s="37">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D184" s="36">
         <v>19000101</v>
@@ -6313,7 +6324,7 @@
         <v>436</v>
       </c>
       <c r="C185" t="s" s="37">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D185" s="36">
         <v>19000101</v>
@@ -6328,7 +6339,7 @@
         <v>437</v>
       </c>
       <c r="C186" t="s" s="37">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D186" s="36">
         <v>19000101</v>
@@ -6343,7 +6354,7 @@
         <v>438</v>
       </c>
       <c r="C187" t="s" s="37">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D187" s="36">
         <v>19000101</v>
@@ -6358,7 +6369,7 @@
         <v>439</v>
       </c>
       <c r="C188" t="s" s="37">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D188" s="36">
         <v>19000101</v>
@@ -6373,7 +6384,7 @@
         <v>440</v>
       </c>
       <c r="C189" t="s" s="37">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D189" s="36">
         <v>19000101</v>
@@ -6388,7 +6399,7 @@
         <v>441</v>
       </c>
       <c r="C190" t="s" s="37">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D190" s="36">
         <v>19950101</v>
@@ -6403,7 +6414,7 @@
         <v>442</v>
       </c>
       <c r="C191" t="s" s="37">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D191" s="36">
         <v>19950101</v>
@@ -6418,7 +6429,7 @@
         <v>443</v>
       </c>
       <c r="C192" t="s" s="37">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D192" s="36">
         <v>19950101</v>
@@ -6433,7 +6444,7 @@
         <v>444</v>
       </c>
       <c r="C193" t="s" s="37">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D193" s="36">
         <v>19950101</v>
@@ -6448,7 +6459,7 @@
         <v>445</v>
       </c>
       <c r="C194" t="s" s="37">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D194" s="36">
         <v>19950101</v>
@@ -6463,7 +6474,7 @@
         <v>446</v>
       </c>
       <c r="C195" t="s" s="37">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D195" s="36">
         <v>19950101</v>
@@ -6478,7 +6489,7 @@
         <v>447</v>
       </c>
       <c r="C196" t="s" s="37">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D196" s="36">
         <v>19950101</v>
@@ -6493,7 +6504,7 @@
         <v>499</v>
       </c>
       <c r="C197" t="s" s="40">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D197" s="39">
         <v>19000101</v>
@@ -6504,13 +6515,13 @@
     </row>
     <row r="198" ht="14.6" customHeight="1">
       <c r="A198" t="s" s="41">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B198" s="42">
         <v>501</v>
       </c>
       <c r="C198" t="s" s="41">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D198" s="42">
         <v>19000101</v>
@@ -6525,7 +6536,7 @@
         <v>502</v>
       </c>
       <c r="C199" t="s" s="37">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D199" s="36">
         <v>19000101</v>
@@ -6540,7 +6551,7 @@
         <v>504</v>
       </c>
       <c r="C200" t="s" s="37">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D200" s="36">
         <v>19000101</v>
@@ -6555,7 +6566,7 @@
         <v>505</v>
       </c>
       <c r="C201" t="s" s="37">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D201" s="36">
         <v>19000101</v>
@@ -6570,7 +6581,7 @@
         <v>506</v>
       </c>
       <c r="C202" t="s" s="37">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D202" s="36">
         <v>19000101</v>
@@ -6585,7 +6596,7 @@
         <v>507</v>
       </c>
       <c r="C203" t="s" s="37">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D203" s="36">
         <v>19000101</v>
@@ -6600,7 +6611,7 @@
         <v>508</v>
       </c>
       <c r="C204" t="s" s="37">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D204" s="36">
         <v>19000101</v>
@@ -6615,7 +6626,7 @@
         <v>509</v>
       </c>
       <c r="C205" t="s" s="37">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D205" s="36">
         <v>19000101</v>
@@ -6630,7 +6641,7 @@
         <v>511</v>
       </c>
       <c r="C206" t="s" s="37">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D206" s="36">
         <v>19000101</v>
@@ -6645,7 +6656,7 @@
         <v>512</v>
       </c>
       <c r="C207" t="s" s="37">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D207" s="36">
         <v>19000101</v>
@@ -6660,7 +6671,7 @@
         <v>513</v>
       </c>
       <c r="C208" t="s" s="37">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D208" s="36">
         <v>20000101</v>
@@ -6675,7 +6686,7 @@
         <v>515</v>
       </c>
       <c r="C209" t="s" s="37">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D209" s="36">
         <v>20000101</v>
@@ -6690,7 +6701,7 @@
         <v>516</v>
       </c>
       <c r="C210" t="s" s="37">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D210" s="36">
         <v>20000101</v>
@@ -6705,7 +6716,7 @@
         <v>517</v>
       </c>
       <c r="C211" t="s" s="37">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D211" s="36">
         <v>20000101</v>
@@ -6720,7 +6731,7 @@
         <v>555</v>
       </c>
       <c r="C212" t="s" s="37">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D212" s="36">
         <v>19000101</v>
@@ -6735,7 +6746,7 @@
         <v>599</v>
       </c>
       <c r="C213" t="s" s="37">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D213" s="36">
         <v>19000101</v>
@@ -6750,7 +6761,7 @@
         <v>966</v>
       </c>
       <c r="C214" t="s" s="37">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D214" s="36">
         <v>19000101</v>
@@ -6765,7 +6776,7 @@
         <v>999</v>
       </c>
       <c r="C215" t="s" s="45">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D215" s="44">
         <v>19000101</v>
